--- a/data/trans_dic/P38C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Habitat-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.8533743827041663</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8868416855016893</v>
+        <v>0.8868416855016894</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7949089356967942</v>
+        <v>0.7970204762966758</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8144053134257153</v>
+        <v>0.8116486932855345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8505551215308622</v>
+        <v>0.8542974412125507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8916206445469458</v>
+        <v>0.8945691224083211</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8306465674335958</v>
+        <v>0.8327365997960104</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8630335459274077</v>
+        <v>0.8636269269335016</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8549897609198622</v>
+        <v>0.8554875208165933</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8871353329173881</v>
+        <v>0.8874429446882655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8993866724910087</v>
+        <v>0.9001823407988534</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9351319442140513</v>
+        <v>0.9336246072995353</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8707132862927067</v>
+        <v>0.8710383067524604</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9057744781016522</v>
+        <v>0.9066255742130384</v>
       </c>
     </row>
     <row r="7">
@@ -694,13 +694,13 @@
         <v>0.8240474714176927</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7700978130336288</v>
+        <v>0.7700978130336289</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.9042023742432443</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8451911575669719</v>
+        <v>0.8451911575669721</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8647232504516466</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7964335434441951</v>
+        <v>0.7978641580911635</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7337760494723469</v>
+        <v>0.7386643094637594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8855702800514262</v>
+        <v>0.8831092240509529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8232381993529732</v>
+        <v>0.8221039914618428</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8491639388612552</v>
+        <v>0.8490381031413179</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7890191179766514</v>
+        <v>0.7877385267520243</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8463845393208385</v>
+        <v>0.8484035296837511</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7973891950160709</v>
+        <v>0.803006604405293</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9196700960220303</v>
+        <v>0.9198218743012345</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.866281162969944</v>
+        <v>0.8642056862380133</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8791410298097153</v>
+        <v>0.8806769396159686</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8290045923100108</v>
+        <v>0.8271496146864559</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.8382835603007093</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8197456817858856</v>
+        <v>0.8197456817858857</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7715460072554915</v>
+        <v>0.7700202846624306</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7339526411840731</v>
+        <v>0.742075796689297</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8468362244009576</v>
+        <v>0.8466125177290323</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8285473603946353</v>
+        <v>0.8295197424261569</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8194969974016757</v>
+        <v>0.8173244455010744</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7935991759548857</v>
+        <v>0.7960706293296026</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8326027568520832</v>
+        <v>0.8305550740483658</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8148883710543021</v>
+        <v>0.8198123394993094</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8956666879195863</v>
+        <v>0.8936078468003381</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8838108598573359</v>
+        <v>0.8844601736893638</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8571787860571017</v>
+        <v>0.8568256294033917</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.841322246589718</v>
+        <v>0.8408215951720479</v>
       </c>
     </row>
     <row r="13">
@@ -858,13 +858,13 @@
         <v>0.8046449176183966</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7852029838629995</v>
+        <v>0.7852029838629994</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8433394741570146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8567647424845534</v>
+        <v>0.8567647424845533</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.8250563716602273</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7777483072462231</v>
+        <v>0.7773837984258792</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7517462822553491</v>
+        <v>0.7509140490462332</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8176620393431091</v>
+        <v>0.8192229197155512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.834018414020074</v>
+        <v>0.8330667848045691</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8089680086603388</v>
+        <v>0.8059157330782175</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8024176887095466</v>
+        <v>0.8040935017024932</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8315238071549336</v>
+        <v>0.8294728657622243</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8155527795578755</v>
+        <v>0.8161077487823621</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8654352620818347</v>
+        <v>0.8649351876374478</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.877639154743093</v>
+        <v>0.8760929489704524</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8419890924667734</v>
+        <v>0.8410378180894491</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8416493150525678</v>
+        <v>0.8414279788619412</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.8147396208755932</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7935776510832028</v>
+        <v>0.7935776510832029</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8744059359469158</v>
@@ -952,7 +952,7 @@
         <v>0.8453082010097103</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8304626865372768</v>
+        <v>0.8304626865372766</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.800635928080064</v>
+        <v>0.8018062085413041</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7768762624246065</v>
+        <v>0.774725107950147</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.862665701263381</v>
+        <v>0.8621662198385857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8534915717541101</v>
+        <v>0.8543363227658608</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8357539324567703</v>
+        <v>0.8363310256453034</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8200778967687002</v>
+        <v>0.8204434622405447</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8281184956996255</v>
+        <v>0.8288384068012333</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.811274380042353</v>
+        <v>0.8083306866304452</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8853058656044034</v>
+        <v>0.8855395829301014</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8767263568064656</v>
+        <v>0.8768999247621044</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8537749270569657</v>
+        <v>0.85403784843585</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8404133901640413</v>
+        <v>0.8399799976433635</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>532401</v>
+        <v>533815</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>562518</v>
+        <v>560614</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>569027</v>
+        <v>571531</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>652263</v>
+        <v>654420</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1112046</v>
+        <v>1114844</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1227456</v>
+        <v>1228300</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>572641</v>
+        <v>572974</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>612753</v>
+        <v>612966</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>601696</v>
+        <v>602228</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>684094</v>
+        <v>682991</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1165686</v>
+        <v>1166121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1288245</v>
+        <v>1289455</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>803939</v>
+        <v>805383</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>768625</v>
+        <v>773746</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>921012</v>
+        <v>918452</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>878010</v>
+        <v>876800</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1740315</v>
+        <v>1740057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1668006</v>
+        <v>1665299</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>854361</v>
+        <v>856399</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>835260</v>
+        <v>841144</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>956476</v>
+        <v>956634</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>923917</v>
+        <v>921703</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1801751</v>
+        <v>1804899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1752536</v>
+        <v>1748615</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>578183</v>
+        <v>577039</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>589418</v>
+        <v>595941</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>661451</v>
+        <v>661276</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>669278</v>
+        <v>670064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1254213</v>
+        <v>1250888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1278366</v>
+        <v>1282347</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>623938</v>
+        <v>622403</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>654415</v>
+        <v>658369</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>699592</v>
+        <v>697984</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>713919</v>
+        <v>714443</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1311884</v>
+        <v>1311343</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1355241</v>
+        <v>1354434</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>722888</v>
+        <v>722549</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>744275</v>
+        <v>743451</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>848457</v>
+        <v>850076</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>932609</v>
+        <v>931545</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1591341</v>
+        <v>1585337</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1691717</v>
+        <v>1695250</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>772871</v>
+        <v>770964</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>807448</v>
+        <v>807997</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>898029</v>
+        <v>897510</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>981387</v>
+        <v>979658</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1656298</v>
+        <v>1654427</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1774428</v>
+        <v>1773962</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2688561</v>
+        <v>2692491</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2743413</v>
+        <v>2735816</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3043291</v>
+        <v>3041529</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3178459</v>
+        <v>3181605</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5754841</v>
+        <v>5758815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5949996</v>
+        <v>5952649</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2780848</v>
+        <v>2783266</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2864884</v>
+        <v>2854489</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3123161</v>
+        <v>3123985</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3264987</v>
+        <v>3265633</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5878930</v>
+        <v>5880741</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>6097539</v>
+        <v>6094394</v>
       </c>
     </row>
     <row r="24">
